--- a/rfuse/rfuse_rr_summary.xlsx
+++ b/rfuse/rfuse_rr_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>5305</v>
+        <v>5535</v>
       </c>
       <c r="C3" s="3">
-        <v>11400</v>
+        <v>12000</v>
       </c>
       <c r="D3" s="3">
-        <v>19800</v>
+        <v>21000</v>
       </c>
       <c r="E3" s="3">
-        <v>24600</v>
+        <v>26100</v>
       </c>
       <c r="F3" s="3">
-        <v>26600</v>
+        <v>29000</v>
       </c>
       <c r="G3" s="3">
-        <v>22900</v>
+        <v>24400</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>3555</v>
+        <v>4230</v>
       </c>
       <c r="C8" s="3">
-        <v>8014</v>
+        <v>7416</v>
       </c>
       <c r="D8" s="3">
-        <v>16300</v>
+        <v>15900</v>
       </c>
       <c r="E8" s="3">
-        <v>31000</v>
+        <v>137000</v>
       </c>
       <c r="F8" s="3">
-        <v>208000</v>
+        <v>211000</v>
       </c>
       <c r="G8" s="3">
-        <v>264000</v>
+        <v>273000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>7474</v>
+        <v>7366</v>
       </c>
       <c r="C13" s="3">
-        <v>10800</v>
+        <v>10600</v>
       </c>
       <c r="D13" s="3">
-        <v>10000</v>
+        <v>13400</v>
       </c>
       <c r="E13" s="3">
-        <v>12000</v>
+        <v>12400</v>
       </c>
       <c r="F13" s="3">
-        <v>12300</v>
+        <v>12900</v>
       </c>
       <c r="G13" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,19 +612,19 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>136000</v>
+        <v>137000</v>
       </c>
       <c r="C18" s="3">
-        <v>162000</v>
+        <v>180000</v>
       </c>
       <c r="D18" s="3">
-        <v>188000</v>
+        <v>197000</v>
       </c>
       <c r="E18" s="3">
-        <v>202000</v>
+        <v>210000</v>
       </c>
       <c r="F18" s="3">
-        <v>178000</v>
+        <v>185000</v>
       </c>
       <c r="G18" s="3">
         <v>162000</v>
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>2343</v>
+        <v>2235</v>
       </c>
       <c r="C23" s="3">
-        <v>3543</v>
+        <v>3878</v>
       </c>
       <c r="D23" s="3">
-        <v>7968</v>
+        <v>8031</v>
       </c>
       <c r="E23" s="3">
-        <v>8078</v>
+        <v>9525</v>
       </c>
       <c r="F23" s="3">
-        <v>8135</v>
+        <v>8808</v>
       </c>
       <c r="G23" s="3">
-        <v>10800</v>
+        <v>8395</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>79900</v>
+        <v>83400</v>
       </c>
       <c r="C28" s="3">
-        <v>115000</v>
+        <v>114000</v>
       </c>
       <c r="D28" s="3">
         <v>259000</v>
       </c>
       <c r="E28" s="3">
-        <v>302000</v>
+        <v>306000</v>
       </c>
       <c r="F28" s="3">
-        <v>246000</v>
+        <v>256000</v>
       </c>
       <c r="G28" s="3">
-        <v>350000</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>5953</v>
+        <v>5851</v>
       </c>
       <c r="C33" s="3">
-        <v>7185</v>
+        <v>7728</v>
       </c>
       <c r="D33" s="3">
-        <v>9394</v>
+        <v>8623</v>
       </c>
       <c r="E33" s="3">
-        <v>9426</v>
+        <v>9383</v>
       </c>
       <c r="F33" s="3">
-        <v>10000</v>
+        <v>9383</v>
       </c>
       <c r="G33" s="3">
-        <v>8841</v>
+        <v>8735</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>137000</v>
+        <v>118000</v>
       </c>
       <c r="C38" s="3">
-        <v>168000</v>
+        <v>185000</v>
       </c>
       <c r="D38" s="3">
-        <v>206000</v>
+        <v>200000</v>
       </c>
       <c r="E38" s="3">
-        <v>216000</v>
+        <v>218000</v>
       </c>
       <c r="F38" s="3">
-        <v>196000</v>
+        <v>181000</v>
       </c>
       <c r="G38" s="3">
-        <v>167000</v>
+        <v>162000</v>
       </c>
     </row>
   </sheetData>
